--- a/medicine/Enfance/Albert_Bendrihen/Albert_Bendrihen.xlsx
+++ b/medicine/Enfance/Albert_Bendrihen/Albert_Bendrihen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert Bendrihen (ou Albert Bendrihem[1]) (9 août 1906, Oran, Algérie-10 mars 1945, Buchenwald) est un médecin français d'origine algérienne qui est le médecin des enfants d'Izieu. Il est arrêté par les Allemands le 7 janvier 1944, à Brégnier-Cordon, dans l'Ain, et déporté du camp de Drancy vers Auschwitz par le Convoi no 67, en date du 3 février 1944. La rafle des Enfants d'Izieu a lieu le 6 avril 1944. D'Auschwitz, il est déporté à Buchenwald, où il meurt le 10 mars 1945.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert Bendrihen (ou Albert Bendrihem) (9 août 1906, Oran, Algérie-10 mars 1945, Buchenwald) est un médecin français d'origine algérienne qui est le médecin des enfants d'Izieu. Il est arrêté par les Allemands le 7 janvier 1944, à Brégnier-Cordon, dans l'Ain, et déporté du camp de Drancy vers Auschwitz par le Convoi no 67, en date du 3 février 1944. La rafle des Enfants d'Izieu a lieu le 6 avril 1944. D'Auschwitz, il est déporté à Buchenwald, où il meurt le 10 mars 1945.
 </t>
         </is>
       </c>
@@ -511,19 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albert[2],[3] Bendrhen Bendrihen est né le 9 août 1906, à Oran (Algérie). Il est de nationalité française.
-Il fait ses études de médecine à la Faculté de médecine de Lyon. Il est médecin à Carignan (Ardennes)[4].
-Seconde Guerre mondiale
-Le docteur Albert Bendrihen, âgé de 37 ans au moment de sa déportation, est un juif converti au catholicisme. Il a obtenu une dérogation pour conserver le droit d'exercer, les Juifs n'ayant alors plus le droit d'exercer la médecine en France[5],[6].
-Durant la Seconde Guerre mondiale, il est le médecin de Sabine Zlatin, la directrice de la maison d'Izieu et de la colonie des enfants d'Izieu.
-Le 7 janvier 1944, le docteur Albert Bendrihen est arrêté à 16 heures, par les Allemands, à son domicile, situé à 3 kilomètres d'Izieu, au hameau voisin de Glandieu. Sabine Zlatin lui avait rendu visite le même jour, ainsi que deux autres patients, selon son carnet de visites.
-Il est déporté[7] par le convoi no 67, en date du 3 février 1944, du Camp de Drancy vers Auschwitz.
-Sa dernière adresse est Brégnier-Cordon (Ain)
-[8].
-Avant d'être amené à Drancy, il est passé par Lyon[2],[9].
-Il est mort à Buchenwald le 10 mars 1945[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albert, Bendrhen Bendrihen est né le 9 août 1906, à Oran (Algérie). Il est de nationalité française.
+Il fait ses études de médecine à la Faculté de médecine de Lyon. Il est médecin à Carignan (Ardennes).
 </t>
         </is>
       </c>
@@ -549,12 +554,58 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Seconde Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le docteur Albert Bendrihen, âgé de 37 ans au moment de sa déportation, est un juif converti au catholicisme. Il a obtenu une dérogation pour conserver le droit d'exercer, les Juifs n'ayant alors plus le droit d'exercer la médecine en France,.
+Durant la Seconde Guerre mondiale, il est le médecin de Sabine Zlatin, la directrice de la maison d'Izieu et de la colonie des enfants d'Izieu.
+Le 7 janvier 1944, le docteur Albert Bendrihen est arrêté à 16 heures, par les Allemands, à son domicile, situé à 3 kilomètres d'Izieu, au hameau voisin de Glandieu. Sabine Zlatin lui avait rendu visite le même jour, ainsi que deux autres patients, selon son carnet de visites.
+Il est déporté par le convoi no 67, en date du 3 février 1944, du Camp de Drancy vers Auschwitz.
+Sa dernière adresse est Brégnier-Cordon (Ain)
+.
+Avant d'être amené à Drancy, il est passé par Lyon,.
+Il est mort à Buchenwald le 10 mars 1945.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Albert_Bendrihen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Albert_Bendrihen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une plaque commémorative à Brégnier-Cordon perpétue sa mémoire[10],[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une plaque commémorative à Brégnier-Cordon perpétue sa mémoire,.
 </t>
         </is>
       </c>
